--- a/messages.xlsx
+++ b/messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,36 @@
           <t>ReadBy</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IsEdited</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>IsDeleted</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>AttachmentType</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AttachmentName</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AttachmentPath</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AttachmentSize</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -518,6 +548,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -557,6 +593,65 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>سلام</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2026-02-03 08:56:56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>08:56</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/messages.xlsx
+++ b/messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,11 +638,11 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -652,6 +652,491 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>سلام خدمت همکاران محترم فروش</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:03:21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23:03</t>
+        </is>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>سلام</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:03:33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>23:03</t>
+        </is>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:03:54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>23:03</t>
+        </is>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1029.jpg</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>static/chat_uploads\20260203_230354_0931990f_1029.jpg</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>109.5 KB</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>شسیشسی</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:04:08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>23:04</t>
+        </is>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ثقصثقصثقصث</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:05:03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>23:05</t>
+        </is>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>شسیشسی</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:05:22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>23:05</t>
+        </is>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>سلاک</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:11:36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>23:11</t>
+        </is>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>سلام</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2026-02-03 23:11:44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1404/11/14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>23:11</t>
+        </is>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>U001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>آقای گلستانی</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>سلام خدمت همکاران محترم فروش این نرم افزاربرای کمک به شما جهت شناخت مسیر خودتون طراحی شده</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2026-02-04 08:29:27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1404/11/15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
